--- a/BonDeCommande/modeleBonCommandeImpression.xlsx
+++ b/BonDeCommande/modeleBonCommandeImpression.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\NetBeansProjects\SOL2GEST\BonDeCommande\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Desktop\ESAIP\Stage SOL2S\SOL2GEST_v2.0\dist\BonDeCommande\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -455,50 +455,6 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="6623392" cy="1466850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>100870</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>49468</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="9416320"/>
-          <a:ext cx="6600825" cy="520098"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -817,6 +773,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>43060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9420226"/>
+          <a:ext cx="6600825" cy="509784"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1109,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1120,7 @@
     <row r="2" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f ca="1">TODAY()</f>
-        <v>42993</v>
+        <v>43376</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="18" t="s">
